--- a/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 36,96</t>
+          <t>19,85; 37,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,56; 50,05</t>
+          <t>35,89; 50,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,13; 42,18</t>
+          <t>30,38; 41,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 26,79</t>
+          <t>19,55; 27,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,09; 35,7</t>
+          <t>29,34; 35,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 30,59</t>
+          <t>25,57; 30,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 24,27</t>
+          <t>17,14; 24,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,19; 30,04</t>
+          <t>25,15; 29,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,89; 26,41</t>
+          <t>22,03; 26,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,62; 33,23</t>
+          <t>25,89; 33,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 63,24</t>
+          <t>30,54; 62,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 52,71</t>
+          <t>29,79; 49,86</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,63; 33,98</t>
+          <t>27,6; 33,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,54; 37,96</t>
+          <t>32,52; 38,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,14; 35,28</t>
+          <t>31,14; 35,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,14; 27,92</t>
+          <t>24,37; 28,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,32</t>
+          <t>31,61; 41,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,84; 33,98</t>
+          <t>28,78; 34,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,11 +633,20 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>28,09%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41,88%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34,18%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34,85%</t>
         </is>
       </c>
     </row>
@@ -579,24 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 37,3</t>
+          <t>7,54; 20,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,89; 50,22</t>
+          <t>17,44; 32,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,38; 41,83</t>
+          <t>20,45; 37,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 35,41</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 25,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27,41; 45,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30,85; 49,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35,59; 49,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 20,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,26; 37,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27,83; 40,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>29,23; 40,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
         </is>
       </c>
     </row>
@@ -629,24 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,55; 27,0</t>
+          <t>11,21; 17,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 35,73</t>
+          <t>24,69; 32,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,57; 30,29</t>
+          <t>16,44; 23,22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 24,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 22,42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28,48; 36,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 32,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27,84; 34,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 18,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27,92; 33,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 27,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 28,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -679,24 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 24,1</t>
+          <t>18,19; 23,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,15; 29,97</t>
+          <t>23,38; 29,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,03; 26,43</t>
+          <t>16,97; 21,77</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 22,45</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21,27; 26,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31,2; 37,28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 30,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23,71; 28,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 24,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 32,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 25,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 24,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 33,94</t>
+          <t>16,95; 23,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 62,04</t>
+          <t>19,73; 26,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,79; 49,86</t>
+          <t>23,19; 29,51</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 31,93</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27,06; 34,06</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 32,81</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27,83; 34,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 61,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 27,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 28,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26,09; 30,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28,3; 49,03</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23,28%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,48%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30,7%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,6; 33,73</t>
+          <t>16,49; 21,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,52; 38,08</t>
+          <t>24,15; 29,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,14; 35,21</t>
+          <t>23,65; 29,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 30,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20,43; 25,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30,04; 35,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 29,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30,21; 35,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 23,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28,12; 32,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,5; 28,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 32,52</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,37; 28,05</t>
+          <t>16,94; 19,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,57</t>
+          <t>24,42; 27,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,84</t>
+          <t>21,74; 24,76</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 25,91</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 25,72</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30,95; 33,99</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26,92; 30,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29,85; 40,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 22,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 30,33</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 27,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 33,43</t>
         </is>
       </c>
     </row>
@@ -851,13 +1491,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 20,96</t>
+          <t>7,6; 21,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 32,41</t>
+          <t>17,22; 33,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,45; 37,04</t>
+          <t>20,79; 37,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 35,41</t>
+          <t>17,88; 35,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 25,63</t>
+          <t>12,53; 25,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 45,65</t>
+          <t>26,77; 45,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,85; 49,76</t>
+          <t>31,35; 49,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,59; 49,3</t>
+          <t>34,83; 48,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,56</t>
+          <t>11,43; 20,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 37,34</t>
+          <t>24,35; 37,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,83; 40,98</t>
+          <t>28,23; 40,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,23; 40,67</t>
+          <t>29,1; 41,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,17</t>
+          <t>11,17; 16,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 32,2</t>
+          <t>24,6; 32,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,22</t>
+          <t>16,26; 23,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,84</t>
+          <t>17,79; 25,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 22,42</t>
+          <t>16,12; 22,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 36,58</t>
+          <t>28,66; 36,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 32,91</t>
+          <t>25,1; 32,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,84; 34,1</t>
+          <t>27,74; 34,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,86</t>
+          <t>14,28; 18,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,92; 33,56</t>
+          <t>28,01; 33,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,84; 27,09</t>
+          <t>21,78; 27,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 28,48</t>
+          <t>23,75; 28,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 23,93</t>
+          <t>17,88; 23,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,38; 29,4</t>
+          <t>23,35; 29,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 21,77</t>
+          <t>16,98; 22,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 22,45</t>
+          <t>15,99; 22,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 26,99</t>
+          <t>21,41; 27,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,2; 37,28</t>
+          <t>31,04; 37,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,65; 30,2</t>
+          <t>24,37; 30,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,45</t>
+          <t>23,96; 28,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 24,51</t>
+          <t>20,72; 24,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,4</t>
+          <t>28,26; 32,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,56; 25,26</t>
+          <t>21,59; 25,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 24,73</t>
+          <t>20,41; 24,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,44</t>
+          <t>16,95; 23,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 26,14</t>
+          <t>19,2; 25,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,19; 29,51</t>
+          <t>22,99; 29,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 31,93</t>
+          <t>24,05; 31,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 34,06</t>
+          <t>27,03; 34,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 32,81</t>
+          <t>26,15; 32,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,53</t>
+          <t>27,26; 34,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 61,56</t>
+          <t>29,13; 62,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 27,57</t>
+          <t>22,97; 27,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,79; 28,38</t>
+          <t>23,66; 28,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 30,96</t>
+          <t>26,16; 30,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,3; 49,03</t>
+          <t>28,24; 51,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,57</t>
+          <t>16,32; 21,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 29,96</t>
+          <t>23,87; 29,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,56</t>
+          <t>23,59; 29,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,9; 30,97</t>
+          <t>25,18; 31,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,43; 25,9</t>
+          <t>20,75; 26,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,04; 35,9</t>
+          <t>30,2; 35,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,95; 29,53</t>
+          <t>23,82; 29,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,21; 35,79</t>
+          <t>30,14; 35,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,21; 23,23</t>
+          <t>19,33; 23,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,12; 32,29</t>
+          <t>27,97; 32,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,5; 28,59</t>
+          <t>24,34; 28,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,7; 32,52</t>
+          <t>28,66; 32,64</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 19,92</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 27,43</t>
+          <t>24,21; 27,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 24,76</t>
+          <t>21,7; 24,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,91</t>
+          <t>22,23; 25,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,67; 25,72</t>
+          <t>22,68; 25,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,95; 33,99</t>
+          <t>30,84; 34,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,92; 30,05</t>
+          <t>26,98; 30,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,85; 40,15</t>
+          <t>29,79; 40,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,33; 22,43</t>
+          <t>20,32; 22,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,33</t>
+          <t>28,27; 30,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,01</t>
+          <t>24,81; 27,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,99; 33,43</t>
+          <t>27,03; 32,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>27,59%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 21,29</t>
+          <t>11,12; 16,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 33,21</t>
+          <t>24,53; 31,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 37,69</t>
+          <t>18,17; 24,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 35,87</t>
+          <t>18,3; 25,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 25,67</t>
+          <t>16,19; 22,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 45,91</t>
+          <t>29,3; 36,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,35; 49,56</t>
+          <t>27,44; 34,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 48,78</t>
+          <t>30,52; 35,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,92</t>
+          <t>14,43; 18,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,35; 37,25</t>
+          <t>28,05; 32,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,23; 40,81</t>
+          <t>23,71; 28,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,1; 41,02</t>
+          <t>25,37; 29,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 16,72</t>
+          <t>17,88; 23,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 32,42</t>
+          <t>23,35; 29,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,3</t>
+          <t>16,98; 22,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 25,02</t>
+          <t>9,48; 22,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,27</t>
+          <t>21,41; 27,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,84</t>
+          <t>31,04; 37,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 32,82</t>
+          <t>24,37; 30,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,74; 34,02</t>
+          <t>24,52; 29,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 18,66</t>
+          <t>20,72; 24,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,01; 33,32</t>
+          <t>28,26; 32,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,04</t>
+          <t>21,59; 25,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,75; 28,69</t>
+          <t>13,49; 24,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>38,07%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,55</t>
+          <t>16,95; 23,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 29,2</t>
+          <t>19,2; 25,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,07</t>
+          <t>22,99; 29,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,47</t>
+          <t>23,91; 31,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,13</t>
+          <t>27,03; 34,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,04; 37,24</t>
+          <t>26,15; 32,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 30,15</t>
+          <t>27,26; 34,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 28,63</t>
+          <t>27,94; 73,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 24,48</t>
+          <t>22,97; 27,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,63</t>
+          <t>23,66; 28,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,59; 25,54</t>
+          <t>26,16; 30,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 24,67</t>
+          <t>27,71; 61,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,21</t>
+          <t>16,32; 21,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 25,95</t>
+          <t>23,87; 29,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,99; 29,64</t>
+          <t>23,59; 29,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,05; 31,72</t>
+          <t>25,4; 31,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,03; 34,09</t>
+          <t>20,75; 26,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,89</t>
+          <t>30,2; 35,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,57</t>
+          <t>23,82; 29,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,13; 62,49</t>
+          <t>25,05; 34,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,62</t>
+          <t>19,33; 23,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,38</t>
+          <t>27,97; 32,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 30,98</t>
+          <t>24,34; 28,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 51,1</t>
+          <t>26,52; 32,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>28,71%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 21,31</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,87; 29,91</t>
+          <t>24,21; 27,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,59; 29,61</t>
+          <t>21,7; 24,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,26</t>
+          <t>16,67; 25,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,75; 26,13</t>
+          <t>22,68; 25,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,67</t>
+          <t>30,84; 34,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,6</t>
+          <t>26,98; 30,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 35,67</t>
+          <t>29,28; 47,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 23,01</t>
+          <t>20,32; 22,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,97; 32,06</t>
+          <t>28,27; 30,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,34; 28,51</t>
+          <t>24,81; 27,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,66; 32,64</t>
+          <t>25,58; 35,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,22%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>24,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>32,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>32,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21,34%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>29,28%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>25,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 20,12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>24,21; 27,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>21,7; 24,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>22,23; 25,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,68; 25,65</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>30,84; 34,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>26,98; 30,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>29,79; 40,06</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>20,32; 22,3</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 30,45</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>24,81; 27,04</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>27,03; 32,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,3</t>
+          <t>11,37; 16,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,08</t>
+          <t>24,57; 31,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,59</t>
+          <t>18,08; 24,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,22</t>
+          <t>18,69; 25,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,12</t>
+          <t>16,15; 22,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 36,64</t>
+          <t>29,62; 36,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 34,35</t>
+          <t>27,51; 34,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,52; 35,83</t>
+          <t>30,55; 36,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,31</t>
+          <t>14,55; 18,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,05; 32,98</t>
+          <t>27,9; 32,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,5</t>
+          <t>23,59; 28,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,37; 29,81</t>
+          <t>25,53; 29,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,55</t>
+          <t>18,32; 24,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 29,2</t>
+          <t>23,46; 29,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,07</t>
+          <t>16,82; 21,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 22,57</t>
+          <t>8,31; 22,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,13</t>
+          <t>21,26; 26,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 37,24</t>
+          <t>31,37; 37,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,37; 30,15</t>
+          <t>24,44; 30,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,52; 29,29</t>
+          <t>24,25; 29,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 24,48</t>
+          <t>20,39; 24,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,63</t>
+          <t>28,09; 32,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 25,54</t>
+          <t>21,47; 25,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 24,8</t>
+          <t>14,43; 24,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,21</t>
+          <t>16,96; 23,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 25,95</t>
+          <t>19,32; 25,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 29,64</t>
+          <t>22,61; 29,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,91; 31,65</t>
+          <t>23,76; 31,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,03; 34,09</t>
+          <t>26,98; 33,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,89</t>
+          <t>26,3; 32,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,57</t>
+          <t>27,57; 34,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 73,96</t>
+          <t>27,78; 75,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,62</t>
+          <t>22,75; 27,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,38</t>
+          <t>23,69; 28,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 30,98</t>
+          <t>26,12; 30,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 61,99</t>
+          <t>27,77; 60,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 21,31</t>
+          <t>16,16; 21,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 29,91</t>
+          <t>23,97; 30,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 29,61</t>
+          <t>23,64; 29,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 31,81</t>
+          <t>25,39; 31,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 26,13</t>
+          <t>20,72; 25,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,67</t>
+          <t>30,03; 35,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,6</t>
+          <t>23,55; 29,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,05; 34,51</t>
+          <t>24,7; 34,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,33; 23,01</t>
+          <t>19,29; 23,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 32,06</t>
+          <t>28,01; 32,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 28,51</t>
+          <t>24,58; 28,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 32,22</t>
+          <t>26,46; 32,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,12</t>
+          <t>17,2; 19,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,21; 27,39</t>
+          <t>24,41; 27,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,7; 24,75</t>
+          <t>21,7; 24,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 25,59</t>
+          <t>17,43; 25,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,68; 25,65</t>
+          <t>22,6; 25,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,84; 34,27</t>
+          <t>30,76; 34,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,98; 30,09</t>
+          <t>26,86; 30,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 47,11</t>
+          <t>29,33; 46,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 22,3</t>
+          <t>20,31; 22,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,27; 30,45</t>
+          <t>28,16; 30,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,81; 27,04</t>
+          <t>24,85; 26,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,16</t>
+          <t>25,69; 35,04</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93892</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>195089</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>142285</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135226</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>130082</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>230753</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>205690</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>217579</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>223974</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>425842</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>347974</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>352805</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77895; 114249</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>172568; 219190</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>121343; 165877</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>116273; 158158</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110736; 151439</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>206109; 256944</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>182801; 231595</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>200565; 236573</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>199378; 253362</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>390109; 461350</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>315134; 380156</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>326497; 382951</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>197259</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>266572</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>197484</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>197133</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>232198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>351603</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>284024</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>245787</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>429458</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>618174</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>481507</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>442920</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>173923; 228302</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>238373; 297599</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>171385; 223061</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96630; 259155</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>204534; 258554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>323420; 384066</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>254340; 316483</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>222895; 267149</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>389881; 467765</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>575097; 662758</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>442365; 518980</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>300409; 514837</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>134258</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>169854</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>198751</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>179637</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>204522</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>228418</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>241511</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>406440</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>338780</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>398272</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>440262</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>586077</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113770; 154689</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>145981; 194236</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>171722; 225172</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>153521; 204169</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>182765; 229843</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>204101; 255327</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>216128; 268607</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>248134; 671823</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>306657; 371053</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>362929; 434593</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>403174; 474254</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>427540; 930886</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>172970</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>253003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>248102</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>262706</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>240197</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>342988</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275680</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>341188</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>413167</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>595991</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>523782</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>603895</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>149405; 194984</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>225255; 282865</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>221625; 273987</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>235067; 292659</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>213796; 266661</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>314054; 374077</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>245117; 304922</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>268988; 376047</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>377411; 451091</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>556149; 639912</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>486164; 566246</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>533119; 647590</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>598379</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>884519</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>786621</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>774702</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>807000</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1153761</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1006904</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1210995</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1405378</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2038279</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1793526</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1985697</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>555576; 640897</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>833100; 936225</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>735079; 835347</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>585241; 853643</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>758572; 855771</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1091762; 1208400</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>948199; 1061415</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1043775; 1642349</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1338043; 1468558</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1960964; 2120399</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1718740; 1864026</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1776509; 2422836</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>